--- a/audit/14.AUDIT INTERNAL/HASIL AUDIT INTENAL 1 PKM BERAKIT (2).xlsx
+++ b/audit/14.AUDIT INTERNAL/HASIL AUDIT INTENAL 1 PKM BERAKIT (2).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>HASIL TEMUAN AUDIT INTERNAL</t>
   </si>
@@ -86,10 +86,22 @@
     <t>EVALUASI</t>
   </si>
   <si>
-    <t>monitoring tiap triwulan</t>
-  </si>
-  <si>
-    <t>melakukan perhitungan kembali jumlah baduta yang akan di vaksin pentabio sehingga dinas kesehatan dapat memberikan vaksin sesuai dengan jumlah bayi yg akan di vaksin</t>
+    <t>FARMASI</t>
+  </si>
+  <si>
+    <t>Harema Yanti, A.Md.Keb</t>
+  </si>
+  <si>
+    <t>Melakukan konseling obat pada pasien yang mendapat obat baru</t>
+  </si>
+  <si>
+    <t>monitoring tiap bulan</t>
+  </si>
+  <si>
+    <t>Menyediakan box emergensi dan mengisi dengan BMHP yang dibutuhkan</t>
+  </si>
+  <si>
+    <t>melakukan koordinasi dengan penanggungjawab ruangan</t>
   </si>
 </sst>
 </file>
@@ -97,12 +109,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,9 +148,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,134 +282,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,25 +292,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,164 +476,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -507,6 +512,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -518,7 +575,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -527,34 +597,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -570,12 +612,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -585,23 +675,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -609,38 +688,23 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
@@ -650,121 +714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -782,6 +731,21 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -807,6 +771,21 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -815,6 +794,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,6 +822,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -836,235 +895,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1078,87 +1057,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1561,7 +1536,7 @@
       <c r="E4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1569,103 +1544,103 @@
       </c>
     </row>
     <row r="5" ht="57" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="57.75" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" ht="15" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="28" ht="123.75" customHeight="1"/>
   </sheetData>
@@ -1685,19 +1660,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="28.5416666666667" customWidth="1"/>
     <col min="2" max="2" width="29.45" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="64.45" customWidth="1"/>
     <col min="4" max="4" width="54.725" customWidth="1"/>
-    <col min="5" max="5" width="5.18333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1708,16 +1682,12 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
     </row>
-    <row r="3" ht="15"/>
     <row r="4" ht="15" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>1</v>
@@ -1732,70 +1702,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="42.75" spans="1:4">
+    <row r="5" ht="72" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
+    <row r="6" ht="102" customHeight="1" spans="1:4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="42.75" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" ht="36" customHeight="1"/>
-    <row r="11" ht="48.75" customHeight="1"/>
-    <row r="12" ht="36.75" customHeight="1"/>
-    <row r="13" ht="66" customHeight="1"/>
-    <row r="14" ht="51" customHeight="1"/>
-    <row r="15" ht="48" customHeight="1"/>
-    <row r="16" ht="45" customHeight="1"/>
-    <row r="17" ht="71.25" customHeight="1"/>
-    <row r="26" ht="31.5" customHeight="1"/>
-    <row r="31" ht="19.5" customHeight="1"/>
-    <row r="32" ht="21" customHeight="1"/>
+    <row r="7" ht="51" customHeight="1"/>
+    <row r="8" ht="48" customHeight="1"/>
+    <row r="9" ht="45" customHeight="1"/>
+    <row r="10" ht="71.25" customHeight="1"/>
+    <row r="19" ht="31.5" customHeight="1"/>
+    <row r="24" ht="19.5" customHeight="1"/>
+    <row r="25" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
